--- a/medicine/Mort/Cimetière_ancien_de_Vitry-sur-Seine/Cimetière_ancien_de_Vitry-sur-Seine.xlsx
+++ b/medicine/Mort/Cimetière_ancien_de_Vitry-sur-Seine/Cimetière_ancien_de_Vitry-sur-Seine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_ancien_de_Vitry-sur-Seine</t>
+          <t>Cimetière_ancien_de_Vitry-sur-Seine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le cimetière ancien de Vitry-sur-Seine est un des cimetières communaux de la commune de Vitry-sur-Seine, dans le département du Val-de-Marne[1]. Il est situé rue du Général-de-Gaulle, anciennement rue Montebello[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cimetière ancien de Vitry-sur-Seine est un des cimetières communaux de la commune de Vitry-sur-Seine, dans le département du Val-de-Marne. Il est situé rue du Général-de-Gaulle, anciennement rue Montebello.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_ancien_de_Vitry-sur-Seine</t>
+          <t>Cimetière_ancien_de_Vitry-sur-Seine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce cimetière comprend une zone d'inhumation dite en terrains concédés, de 4 000 concessions réparties en 13 divisions. Sa superficie s'élève à deux hectares.
-Il s'y trouve un monument aux morts de la Première Guerre mondiale[3].
-L'application de la réglementation sur les usages des produits phytosanitaires donne une identité écologique marquée à ce cimetière[4]. Toutefois, la sobriété de l'esthétique contemporaine donne à ce cimetière un aspect plus minéral que celui des chapelles et concessions anciennes.
+Il s'y trouve un monument aux morts de la Première Guerre mondiale.
+L'application de la réglementation sur les usages des produits phytosanitaires donne une identité écologique marquée à ce cimetière. Toutefois, la sobriété de l'esthétique contemporaine donne à ce cimetière un aspect plus minéral que celui des chapelles et concessions anciennes.
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_ancien_de_Vitry-sur-Seine</t>
+          <t>Cimetière_ancien_de_Vitry-sur-Seine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,11 +558,13 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Comme bien souvent, le cimetière du village se trouvait disposé autour de l'église paroissiale[5]; D'après l'abbé Lebeuf, saint Louis s'y arrêta[6]. 
-À la suite de la promulgation du décret impérial sur les sépultures en 1804, ce qui est aujourd'hui le cimetière ancien fut créé en 1829[7].
-La commune de Vitry-sur-Seine est membre du Syndicat intercommunal funéraire de la région parisienne[8].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Comme bien souvent, le cimetière du village se trouvait disposé autour de l'église paroissiale; D'après l'abbé Lebeuf, saint Louis s'y arrêta. 
+À la suite de la promulgation du décret impérial sur les sépultures en 1804, ce qui est aujourd'hui le cimetière ancien fut créé en 1829.
+La commune de Vitry-sur-Seine est membre du Syndicat intercommunal funéraire de la région parisienne.
 </t>
         </is>
       </c>
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_ancien_de_Vitry-sur-Seine</t>
+          <t>Cimetière_ancien_de_Vitry-sur-Seine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,10 +593,12 @@
           <t>Personnalités</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Marcel Laurent, exécuté le 1er août 1944, résistant FTPF[9].
-Alexis Loiseau, F.F.I., mort de ses blessures le 21 août 1944 à Paris. Il est inhumé dans le carré militaire[10],[11].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Marcel Laurent, exécuté le 1er août 1944, résistant FTPF.
+Alexis Loiseau, F.F.I., mort de ses blessures le 21 août 1944 à Paris. Il est inhumé dans le carré militaire,.
 Le choriste Érick Bamy (1949-2014).
 La stèle du monument aux morts indique: « Vitry-sur-Seine / À ses glorieux enfants / Morts pour la France / 1914 - 1918 ».
 </t>
